--- a/data_year/zb/教育/高等学校普通本、专科学校和学生情况.xlsx
+++ b/data_year/zb/教育/高等学校普通本、专科学校和学生情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,991 +508,619 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.9</v>
+        <v>966.2</v>
       </c>
       <c r="C2" t="n">
-        <v>48.7</v>
+        <v>310.5</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>316.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>332.245</v>
+      </c>
       <c r="F2" t="n">
-        <v>556.1</v>
+        <v>2231.8</v>
       </c>
       <c r="G2" t="n">
-        <v>220.6</v>
+        <v>661.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1041</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>243.5867</v>
+      </c>
       <c r="J2" t="n">
-        <v>340.0181</v>
+        <v>1265.6132</v>
       </c>
       <c r="K2" t="n">
-        <v>116.0191</v>
+        <v>351.2563</v>
       </c>
       <c r="L2" t="n">
-        <v>49.5624</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>259.0535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>286.8211</v>
+      </c>
       <c r="N2" t="n">
-        <v>95</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>575.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>619.0661</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8</v>
+        <v>958.9</v>
       </c>
       <c r="C3" t="n">
-        <v>66.59999999999999</v>
+        <v>324.9</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>328.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>324.8092</v>
+      </c>
       <c r="F3" t="n">
-        <v>719.1</v>
+        <v>2308.5</v>
       </c>
       <c r="G3" t="n">
-        <v>268.3</v>
+        <v>681.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1225</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2409</v>
+      </c>
+      <c r="I3" t="n">
+        <v>270.7934</v>
+      </c>
       <c r="J3" t="n">
-        <v>424.3744</v>
+        <v>1349.6577</v>
       </c>
       <c r="K3" t="n">
-        <v>138.1835</v>
+        <v>356.6411</v>
       </c>
       <c r="L3" t="n">
-        <v>56.7839</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>279.6229</v>
+      </c>
+      <c r="M3" t="n">
+        <v>311.3087</v>
+      </c>
       <c r="N3" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>608.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>636.1179</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.4</v>
+        <v>964.2</v>
       </c>
       <c r="C4" t="n">
-        <v>89.09999999999999</v>
+        <v>314.8</v>
       </c>
       <c r="D4" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>320.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>328.6498</v>
+      </c>
       <c r="F4" t="n">
-        <v>903.4</v>
+        <v>2391.3</v>
       </c>
       <c r="G4" t="n">
-        <v>320.5</v>
+        <v>688.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1396</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>2442</v>
+      </c>
+      <c r="I4" t="n">
+        <v>296.6148</v>
+      </c>
       <c r="J4" t="n">
-        <v>527.0845</v>
+        <v>1427.0888</v>
       </c>
       <c r="K4" t="n">
-        <v>158.7939</v>
+        <v>374.0574</v>
       </c>
       <c r="L4" t="n">
-        <v>65.5763</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>303.8473</v>
+      </c>
+      <c r="M4" t="n">
+        <v>323.1125</v>
+      </c>
       <c r="N4" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>624.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>651.7623</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>479.4</v>
+        <v>973.6</v>
       </c>
       <c r="C5" t="n">
-        <v>199.6</v>
+        <v>318.4</v>
       </c>
       <c r="D5" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>318.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>324.0024</v>
+      </c>
       <c r="F5" t="n">
-        <v>1108.6</v>
+        <v>2468.1</v>
       </c>
       <c r="G5" t="n">
-        <v>382.2</v>
+        <v>699.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1552</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>2491</v>
+      </c>
+      <c r="I5" t="n">
+        <v>313.0415</v>
+      </c>
       <c r="J5" t="n">
-        <v>629.2089</v>
+        <v>1494.4353</v>
       </c>
       <c r="K5" t="n">
-        <v>182.5262</v>
+        <v>381.4331</v>
       </c>
       <c r="L5" t="n">
-        <v>92.9598</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>319.9716</v>
+      </c>
+      <c r="M5" t="n">
+        <v>349.745</v>
+      </c>
       <c r="N5" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>638.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>673.7474</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>595.7</v>
+        <v>1006.6</v>
       </c>
       <c r="C6" t="n">
-        <v>237.4</v>
+        <v>338</v>
       </c>
       <c r="D6" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="E6" t="n">
+        <v>329.7753</v>
+      </c>
       <c r="F6" t="n">
-        <v>1333.5</v>
+        <v>2547.7</v>
       </c>
       <c r="G6" t="n">
-        <v>447.3</v>
+        <v>721.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1731</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>2529</v>
+      </c>
+      <c r="I6" t="n">
+        <v>333.8323</v>
+      </c>
       <c r="J6" t="n">
-        <v>737.8436</v>
+        <v>1541.0653</v>
       </c>
       <c r="K6" t="n">
-        <v>209.9151</v>
+        <v>383.4152</v>
       </c>
       <c r="L6" t="n">
-        <v>119.629</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>341.3787</v>
+      </c>
+      <c r="M6" t="n">
+        <v>370.1175</v>
+      </c>
       <c r="N6" t="n">
-        <v>239.1</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>659.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>699.8928</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713</v>
+        <v>1048.6</v>
       </c>
       <c r="C7" t="n">
-        <v>268.1</v>
+        <v>348.4</v>
       </c>
       <c r="D7" t="n">
-        <v>160.2</v>
+        <v>322.3</v>
       </c>
       <c r="E7" t="n">
-        <v>209.5325</v>
+        <v>337.4754</v>
       </c>
       <c r="F7" t="n">
-        <v>1561.8</v>
+        <v>2625.3</v>
       </c>
       <c r="G7" t="n">
-        <v>504.5</v>
+        <v>737.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1792</v>
+        <v>2560</v>
       </c>
       <c r="I7" t="n">
-        <v>130.9692</v>
+        <v>350.323</v>
       </c>
       <c r="J7" t="n">
-        <v>848.8188</v>
+        <v>1576.6848</v>
       </c>
       <c r="K7" t="n">
-        <v>236.3647</v>
+        <v>389.4184</v>
       </c>
       <c r="L7" t="n">
-        <v>146.5786</v>
+        <v>358.594</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5706</v>
+        <v>387.9845</v>
       </c>
       <c r="N7" t="n">
-        <v>306.8</v>
+        <v>680.9</v>
       </c>
       <c r="O7" t="n">
-        <v>388.1031</v>
+        <v>725.4598999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>795.5</v>
+        <v>1082.9</v>
       </c>
       <c r="C8" t="n">
-        <v>293</v>
+        <v>343.2</v>
       </c>
       <c r="D8" t="n">
-        <v>204.8</v>
+        <v>329.8</v>
       </c>
       <c r="E8" t="n">
-        <v>253.0949</v>
+        <v>360.359</v>
       </c>
       <c r="F8" t="n">
-        <v>1738.8</v>
+        <v>2695.8</v>
       </c>
       <c r="G8" t="n">
-        <v>546.1</v>
+        <v>748.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1867</v>
+        <v>2596</v>
       </c>
       <c r="I8" t="n">
-        <v>156.5549</v>
+        <v>365.9686</v>
       </c>
       <c r="J8" t="n">
-        <v>943.3395</v>
+        <v>1612.9535</v>
       </c>
       <c r="K8" t="n">
-        <v>253.0854</v>
+        <v>405.4007</v>
       </c>
       <c r="L8" t="n">
-        <v>172.6674</v>
+        <v>374.368</v>
       </c>
       <c r="M8" t="n">
-        <v>205.6794</v>
+        <v>399.1586</v>
       </c>
       <c r="N8" t="n">
-        <v>377.5</v>
+        <v>704.2</v>
       </c>
       <c r="O8" t="n">
-        <v>458.7743</v>
+        <v>759.5176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>860.6</v>
+        <v>1105</v>
       </c>
       <c r="C9" t="n">
-        <v>283.8</v>
+        <v>350.7</v>
       </c>
       <c r="D9" t="n">
-        <v>248.2</v>
+        <v>351.6</v>
       </c>
       <c r="E9" t="n">
-        <v>291.0293</v>
+        <v>377.3354</v>
       </c>
       <c r="F9" t="n">
-        <v>1884.9</v>
+        <v>2753.6</v>
       </c>
       <c r="G9" t="n">
-        <v>565.9</v>
+        <v>761.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1908</v>
+        <v>2631</v>
       </c>
       <c r="I9" t="n">
-        <v>182.0516</v>
+        <v>377.1039</v>
       </c>
       <c r="J9" t="n">
-        <v>1024.303</v>
+        <v>1648.632</v>
       </c>
       <c r="K9" t="n">
-        <v>282.0971</v>
+        <v>410.7534</v>
       </c>
       <c r="L9" t="n">
-        <v>199.5944</v>
+        <v>384.1839</v>
       </c>
       <c r="M9" t="n">
-        <v>232.4882</v>
+        <v>403.1331</v>
       </c>
       <c r="N9" t="n">
-        <v>447.8</v>
+        <v>735.8</v>
       </c>
       <c r="O9" t="n">
-        <v>523.5175</v>
+        <v>780.4684999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>916.8</v>
+        <v>1133.7005</v>
       </c>
       <c r="C10" t="n">
-        <v>310.6</v>
+        <v>368.8341</v>
       </c>
       <c r="D10" t="n">
-        <v>286.3</v>
+        <v>366.4729</v>
       </c>
       <c r="E10" t="n">
-        <v>288.9615</v>
+        <v>375.1548</v>
       </c>
       <c r="F10" t="n">
-        <v>2021</v>
+        <v>2831.0348</v>
       </c>
       <c r="G10" t="n">
-        <v>607.7</v>
+        <v>790.9931</v>
       </c>
       <c r="H10" t="n">
-        <v>2263</v>
+        <v>2663</v>
       </c>
       <c r="I10" t="n">
-        <v>208.2558</v>
+        <v>380.7417</v>
       </c>
       <c r="J10" t="n">
-        <v>1104.2207</v>
+        <v>1697.3343</v>
       </c>
       <c r="K10" t="n">
-        <v>297.0601</v>
+        <v>422.159</v>
       </c>
       <c r="L10" t="n">
-        <v>225.6783</v>
+        <v>386.8358</v>
       </c>
       <c r="M10" t="n">
-        <v>252.8494</v>
+        <v>412.5184</v>
       </c>
       <c r="N10" t="n">
-        <v>511.9498</v>
+        <v>753.3087</v>
       </c>
       <c r="O10" t="n">
-        <v>541.8108999999999</v>
+        <v>787.6732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.8</v>
+        <v>1280.7058</v>
       </c>
       <c r="C11" t="n">
-        <v>313.4</v>
+        <v>483.6146</v>
       </c>
       <c r="D11" t="n">
-        <v>285.6</v>
+        <v>363.8141</v>
       </c>
       <c r="E11" t="n">
-        <v>321.1179</v>
+        <v>385.5484</v>
       </c>
       <c r="F11" t="n">
-        <v>2144.7</v>
+        <v>3031.5262</v>
       </c>
       <c r="G11" t="n">
-        <v>639.5</v>
+        <v>914.9026</v>
       </c>
       <c r="H11" t="n">
-        <v>2305</v>
+        <v>2688</v>
       </c>
       <c r="I11" t="n">
-        <v>229.82</v>
+        <v>389.175</v>
       </c>
       <c r="J11" t="n">
-        <v>1179.8511</v>
+        <v>1750.8204</v>
       </c>
       <c r="K11" t="n">
-        <v>326.1081</v>
+        <v>431.288</v>
       </c>
       <c r="L11" t="n">
-        <v>245.5359</v>
+        <v>394.7157</v>
       </c>
       <c r="M11" t="n">
-        <v>266.296</v>
+        <v>434.3591</v>
       </c>
       <c r="N11" t="n">
-        <v>531.1</v>
+        <v>758.5298</v>
       </c>
       <c r="O11" t="n">
-        <v>587.4139</v>
+        <v>819.9075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.2</v>
+        <v>1459.5488</v>
       </c>
       <c r="C12" t="n">
-        <v>310.5</v>
+        <v>524.3364</v>
       </c>
       <c r="D12" t="n">
-        <v>316.4</v>
+        <v>376.6894</v>
       </c>
       <c r="E12" t="n">
-        <v>332.245</v>
+        <v>409.7688</v>
       </c>
       <c r="F12" t="n">
-        <v>2231.8</v>
+        <v>3285.2948</v>
       </c>
       <c r="G12" t="n">
-        <v>661.8</v>
+        <v>967.4518</v>
       </c>
       <c r="H12" t="n">
-        <v>2358</v>
+        <v>2738</v>
       </c>
       <c r="I12" t="n">
-        <v>243.5867</v>
+        <v>416.9808</v>
       </c>
       <c r="J12" t="n">
-        <v>1265.6132</v>
+        <v>1825.746</v>
       </c>
       <c r="K12" t="n">
-        <v>351.2563</v>
+        <v>443.1154</v>
       </c>
       <c r="L12" t="n">
-        <v>259.0535</v>
+        <v>420.5097</v>
       </c>
       <c r="M12" t="n">
-        <v>286.8211</v>
+        <v>444.2318</v>
       </c>
       <c r="N12" t="n">
-        <v>575.4</v>
+        <v>797.1991</v>
       </c>
       <c r="O12" t="n">
-        <v>619.0661</v>
+        <v>854.0006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>958.9</v>
+        <v>1590.0966</v>
       </c>
       <c r="C13" t="n">
-        <v>324.9</v>
+        <v>552.5801</v>
       </c>
       <c r="D13" t="n">
-        <v>328.5</v>
+        <v>398.4094</v>
       </c>
       <c r="E13" t="n">
-        <v>324.8092</v>
+        <v>521.1278</v>
       </c>
       <c r="F13" t="n">
-        <v>2308.5</v>
+        <v>3496.1307</v>
       </c>
       <c r="G13" t="n">
-        <v>681.5</v>
+        <v>1001.3151</v>
       </c>
       <c r="H13" t="n">
-        <v>2409</v>
+        <v>2756</v>
       </c>
       <c r="I13" t="n">
-        <v>270.7934</v>
+        <v>424.9274</v>
       </c>
       <c r="J13" t="n">
-        <v>1349.6577</v>
+        <v>1893.1044</v>
       </c>
       <c r="K13" t="n">
-        <v>356.6411</v>
+        <v>444.5969</v>
       </c>
       <c r="L13" t="n">
-        <v>279.6229</v>
+        <v>428.097</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3087</v>
+        <v>484.7707</v>
       </c>
       <c r="N13" t="n">
-        <v>608.2</v>
+        <v>826.5064</v>
       </c>
       <c r="O13" t="n">
-        <v>636.1179</v>
+        <v>1006.8273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>964.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>314.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>320.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>328.6498</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2391.3</v>
+        <v>3659.4175</v>
       </c>
       <c r="G14" t="n">
-        <v>688.8</v>
+        <v>1014.5421</v>
       </c>
       <c r="H14" t="n">
-        <v>2442</v>
-      </c>
-      <c r="I14" t="n">
-        <v>296.6148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1427.0888</v>
-      </c>
-      <c r="K14" t="n">
-        <v>374.0574</v>
-      </c>
-      <c r="L14" t="n">
-        <v>303.8473</v>
-      </c>
-      <c r="M14" t="n">
-        <v>323.1125</v>
-      </c>
+        <v>2760</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>624.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>651.7623</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>973.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>318.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>318.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>324.0024</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2468.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>699.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2491</v>
-      </c>
-      <c r="I15" t="n">
-        <v>313.0415</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1494.4353</v>
-      </c>
-      <c r="K15" t="n">
-        <v>381.4331</v>
-      </c>
-      <c r="L15" t="n">
-        <v>319.9716</v>
-      </c>
-      <c r="M15" t="n">
-        <v>349.745</v>
-      </c>
-      <c r="N15" t="n">
-        <v>638.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>673.7474</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1006.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>338</v>
-      </c>
-      <c r="D16" t="n">
-        <v>318</v>
-      </c>
-      <c r="E16" t="n">
-        <v>329.7753</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2547.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>721.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2529</v>
-      </c>
-      <c r="I16" t="n">
-        <v>333.8323</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1541.0653</v>
-      </c>
-      <c r="K16" t="n">
-        <v>383.4152</v>
-      </c>
-      <c r="L16" t="n">
-        <v>341.3787</v>
-      </c>
-      <c r="M16" t="n">
-        <v>370.1175</v>
-      </c>
-      <c r="N16" t="n">
-        <v>659.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>699.8928</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1048.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>348.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>322.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>337.4754</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2625.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>737.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2560</v>
-      </c>
-      <c r="I17" t="n">
-        <v>350.323</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1576.6848</v>
-      </c>
-      <c r="K17" t="n">
-        <v>389.4184</v>
-      </c>
-      <c r="L17" t="n">
-        <v>358.594</v>
-      </c>
-      <c r="M17" t="n">
-        <v>387.9845</v>
-      </c>
-      <c r="N17" t="n">
-        <v>680.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>725.4598999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1082.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>343.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>329.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>360.359</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2695.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>748.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2596</v>
-      </c>
-      <c r="I18" t="n">
-        <v>365.9686</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1612.9535</v>
-      </c>
-      <c r="K18" t="n">
-        <v>405.4007</v>
-      </c>
-      <c r="L18" t="n">
-        <v>374.368</v>
-      </c>
-      <c r="M18" t="n">
-        <v>399.1586</v>
-      </c>
-      <c r="N18" t="n">
-        <v>704.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>759.5176</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1105</v>
-      </c>
-      <c r="C19" t="n">
-        <v>350.7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>351.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>377.3354</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2753.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>761.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2631</v>
-      </c>
-      <c r="I19" t="n">
-        <v>377.1039</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1648.632</v>
-      </c>
-      <c r="K19" t="n">
-        <v>410.7534</v>
-      </c>
-      <c r="L19" t="n">
-        <v>384.1839</v>
-      </c>
-      <c r="M19" t="n">
-        <v>403.1331</v>
-      </c>
-      <c r="N19" t="n">
-        <v>735.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>780.4684999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1133.7005</v>
-      </c>
-      <c r="C20" t="n">
-        <v>368.8341</v>
-      </c>
-      <c r="D20" t="n">
-        <v>366.4729</v>
-      </c>
-      <c r="E20" t="n">
-        <v>375.1548</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2831</v>
-      </c>
-      <c r="G20" t="n">
-        <v>790.9931</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2663</v>
-      </c>
-      <c r="I20" t="n">
-        <v>380.7417</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1697.3343</v>
-      </c>
-      <c r="K20" t="n">
-        <v>422.159</v>
-      </c>
-      <c r="L20" t="n">
-        <v>386.8358</v>
-      </c>
-      <c r="M20" t="n">
-        <v>412.5184</v>
-      </c>
-      <c r="N20" t="n">
-        <v>753.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>787.6732</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1280.7058</v>
-      </c>
-      <c r="C21" t="n">
-        <v>483.6146</v>
-      </c>
-      <c r="D21" t="n">
-        <v>363.8141</v>
-      </c>
-      <c r="E21" t="n">
-        <v>385.5484</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3031.5262</v>
-      </c>
-      <c r="G21" t="n">
-        <v>914.9026</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2688</v>
-      </c>
-      <c r="I21" t="n">
-        <v>389.175</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1750.8204</v>
-      </c>
-      <c r="K21" t="n">
-        <v>431.288</v>
-      </c>
-      <c r="L21" t="n">
-        <v>394.7157</v>
-      </c>
-      <c r="M21" t="n">
-        <v>434.3591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>758.5298</v>
-      </c>
-      <c r="O21" t="n">
-        <v>819.9075</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1459.5488</v>
-      </c>
-      <c r="C22" t="n">
-        <v>524.3364</v>
-      </c>
-      <c r="D22" t="n">
-        <v>376.6894</v>
-      </c>
-      <c r="E22" t="n">
-        <v>409.7688</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3285.2948</v>
-      </c>
-      <c r="G22" t="n">
-        <v>967.4518</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2738</v>
-      </c>
-      <c r="I22" t="n">
-        <v>416.9808</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1825.746</v>
-      </c>
-      <c r="K22" t="n">
-        <v>443.1154</v>
-      </c>
-      <c r="L22" t="n">
-        <v>420.5097</v>
-      </c>
-      <c r="M22" t="n">
-        <v>444.2318</v>
-      </c>
-      <c r="N22" t="n">
-        <v>797.1991</v>
-      </c>
-      <c r="O22" t="n">
-        <v>854.0006</v>
-      </c>
+        <v>967.2565</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
